--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1C942-A461-BF40-8C36-33560603A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616849E-9B2F-474C-99CA-F15B7FE43A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>玖仟柒佰柒</t>
   </si>
   <si>
-    <t>堂吉诃德（女仆限定）</t>
+    <t>春玖祠</t>
   </si>
   <si>
-    <t>春玖祠</t>
+    <t>血魔收尾人老堂</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
